--- a/TNR_PREJDD/PREJDD.RO.UTI.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.UTI.xlsx
@@ -60,13 +60,13 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table UTI</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
   </si>
   <si>
-    <t>CAS_DE_TEST</t>
+    <t>CAS_DE_TEST (UTI)</t>
   </si>
   <si>
     <t>ID_CODUTI</t>
@@ -352,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -371,6 +371,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -379,6 +383,11 @@
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -451,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -464,17 +473,23 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -696,7 +711,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="31.38"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="6" width="10.63"/>
@@ -726,12 +741,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1848,3454 +1863,3454 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="12" t="s">
+      <c r="M2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="8" t="s">
+      <c r="U2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ2" s="6">
+      <c r="AA2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="10">
         <v>1000.0</v>
       </c>
-      <c r="AR2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AR2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="M3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="U3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" s="6">
+      <c r="AA3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" s="10">
         <v>1001.0</v>
       </c>
-      <c r="AR3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AR3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AX3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AY3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="12" t="s">
+      <c r="M4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="U4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" s="6">
+      <c r="AA4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ4" s="10">
         <v>1002.0</v>
       </c>
-      <c r="AR4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW4" s="6" t="s">
+      <c r="AR4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX4" s="6" t="s">
+      <c r="AX4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY4" s="6" t="s">
+      <c r="AY4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="AZ4" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="12" t="s">
+      <c r="M5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z5" s="8" t="s">
+      <c r="U5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ5" s="6">
+      <c r="AA5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ5" s="10">
         <v>1003.0</v>
       </c>
-      <c r="AR5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AR5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AX5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="AY5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ5" s="6" t="s">
+      <c r="AZ5" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="M6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z6" s="8" t="s">
+      <c r="U6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ6" s="6">
+      <c r="AA6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ6" s="10">
         <v>1004.0</v>
       </c>
-      <c r="AR6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW6" s="6" t="s">
+      <c r="AR6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AX6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="AY6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="AZ6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="E7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="12" t="s">
+      <c r="M7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7" s="8" t="s">
+      <c r="U7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ7" s="6">
+      <c r="AA7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ7" s="10">
         <v>1005.0</v>
       </c>
-      <c r="AR7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW7" s="6" t="s">
+      <c r="AR7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX7" s="6" t="s">
+      <c r="AX7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY7" s="6" t="s">
+      <c r="AY7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ7" s="6" t="s">
+      <c r="AZ7" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="E8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="12" t="s">
+      <c r="M8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="8" t="s">
+      <c r="U8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ8" s="6">
+      <c r="AA8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ8" s="10">
         <v>1006.0</v>
       </c>
-      <c r="AR8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW8" s="6" t="s">
+      <c r="AR8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX8" s="6" t="s">
+      <c r="AX8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY8" s="6" t="s">
+      <c r="AY8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ8" s="6" t="s">
+      <c r="AZ8" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T9" s="12" t="s">
+      <c r="M9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z9" s="8" t="s">
+      <c r="U9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ9" s="6">
+      <c r="AA9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ9" s="10">
         <v>1007.0</v>
       </c>
-      <c r="AR9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW9" s="6" t="s">
+      <c r="AR9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX9" s="6" t="s">
+      <c r="AX9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY9" s="6" t="s">
+      <c r="AY9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ9" s="6" t="s">
+      <c r="AZ9" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="E10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="12" t="s">
+      <c r="M10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="8" t="s">
+      <c r="U10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ10" s="6">
+      <c r="AA10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ10" s="10">
         <v>1008.0</v>
       </c>
-      <c r="AR10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW10" s="6" t="s">
+      <c r="AR10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX10" s="6" t="s">
+      <c r="AX10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY10" s="6" t="s">
+      <c r="AY10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ10" s="6" t="s">
+      <c r="AZ10" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="E11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="12" t="s">
+      <c r="M11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="8" t="s">
+      <c r="U11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AA11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ11" s="10">
         <v>1009.0</v>
       </c>
-      <c r="AR11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW11" s="6" t="s">
+      <c r="AR11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX11" s="6" t="s">
+      <c r="AX11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY11" s="6" t="s">
+      <c r="AY11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ11" s="6" t="s">
+      <c r="AZ11" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="E12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="12" t="s">
+      <c r="M12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="8" t="s">
+      <c r="U12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ12" s="6">
+      <c r="AA12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ12" s="10">
         <v>1010.0</v>
       </c>
-      <c r="AR12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW12" s="6" t="s">
+      <c r="AR12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX12" s="6" t="s">
+      <c r="AX12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY12" s="6" t="s">
+      <c r="AY12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ12" s="6" t="s">
+      <c r="AZ12" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="E13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="12" t="s">
+      <c r="M13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="8" t="s">
+      <c r="U13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ13" s="6">
+      <c r="AA13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ13" s="10">
         <v>1011.0</v>
       </c>
-      <c r="AR13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AR13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX13" s="6" t="s">
+      <c r="AX13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY13" s="6" t="s">
+      <c r="AY13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ13" s="6" t="s">
+      <c r="AZ13" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="E14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="12" t="s">
+      <c r="M14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="8" t="s">
+      <c r="U14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ14" s="6">
+      <c r="AA14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ14" s="10">
         <v>1012.0</v>
       </c>
-      <c r="AR14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW14" s="6" t="s">
+      <c r="AR14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX14" s="6" t="s">
+      <c r="AX14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY14" s="6" t="s">
+      <c r="AY14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ14" s="6" t="s">
+      <c r="AZ14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="E15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="12" t="s">
+      <c r="M15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="8" t="s">
+      <c r="U15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ15" s="6">
+      <c r="AA15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ15" s="10">
         <v>1013.0</v>
       </c>
-      <c r="AR15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW15" s="6" t="s">
+      <c r="AR15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX15" s="6" t="s">
+      <c r="AX15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY15" s="6" t="s">
+      <c r="AY15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ15" s="6" t="s">
+      <c r="AZ15" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="E16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="12" t="s">
+      <c r="M16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" s="8" t="s">
+      <c r="U16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ16" s="6">
+      <c r="AA16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ16" s="10">
         <v>1014.0</v>
       </c>
-      <c r="AR16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW16" s="6" t="s">
+      <c r="AR16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX16" s="6" t="s">
+      <c r="AX16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY16" s="6" t="s">
+      <c r="AY16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ16" s="6" t="s">
+      <c r="AZ16" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="12" t="s">
+      <c r="M17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="8" t="s">
+      <c r="U17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ17" s="6">
+      <c r="AA17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ17" s="10">
         <v>1015.0</v>
       </c>
-      <c r="AR17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW17" s="6" t="s">
+      <c r="AR17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX17" s="6" t="s">
+      <c r="AX17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY17" s="6" t="s">
+      <c r="AY17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ17" s="6" t="s">
+      <c r="AZ17" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="E18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="K18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="12" t="s">
+      <c r="M18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z18" s="8" t="s">
+      <c r="U18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ18" s="6">
+      <c r="AA18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ18" s="10">
         <v>1016.0</v>
       </c>
-      <c r="AR18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW18" s="6" t="s">
+      <c r="AR18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AX18" s="6" t="s">
+      <c r="AX18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AY18" s="6" t="s">
+      <c r="AY18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AZ18" s="6" t="s">
+      <c r="AZ18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="16"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="16"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="14"/>
+      <c r="A50" s="16"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="14"/>
+      <c r="A53" s="16"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="14"/>
+      <c r="A54" s="16"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="14"/>
+      <c r="A55" s="16"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="14"/>
+      <c r="A56" s="16"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="16"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="14"/>
+      <c r="A58" s="16"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="16"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="14"/>
+      <c r="A60" s="16"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="16"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="16"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
+      <c r="A63" s="16"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="14"/>
+      <c r="A64" s="16"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14"/>
+      <c r="A65" s="16"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="14"/>
+      <c r="A66" s="16"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="14"/>
+      <c r="A67" s="16"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="14"/>
+      <c r="A68" s="16"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="14"/>
+      <c r="A69" s="16"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="14"/>
+      <c r="A70" s="16"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="14"/>
+      <c r="A71" s="16"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="14"/>
+      <c r="A72" s="16"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="14"/>
+      <c r="A73" s="16"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="14"/>
+      <c r="A74" s="16"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="14"/>
+      <c r="A75" s="16"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="14"/>
+      <c r="A76" s="16"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="14"/>
+      <c r="A77" s="16"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="14"/>
+      <c r="A78" s="16"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="14"/>
+      <c r="A79" s="16"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="14"/>
+      <c r="A80" s="16"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="14"/>
+      <c r="A81" s="16"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="14"/>
+      <c r="A82" s="16"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="14"/>
+      <c r="A83" s="16"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="14"/>
+      <c r="A84" s="16"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="14"/>
+      <c r="A85" s="16"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="14"/>
+      <c r="A86" s="16"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="14"/>
+      <c r="A87" s="16"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="14"/>
+      <c r="A88" s="16"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="14"/>
+      <c r="A89" s="16"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="14"/>
+      <c r="A90" s="16"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="14"/>
+      <c r="A91" s="16"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="14"/>
+      <c r="A92" s="16"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="14"/>
+      <c r="A93" s="16"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="14"/>
+      <c r="A94" s="16"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="14"/>
+      <c r="A95" s="16"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="14"/>
+      <c r="A96" s="16"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="14"/>
+      <c r="A97" s="16"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="14"/>
+      <c r="A98" s="16"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="14"/>
+      <c r="A99" s="16"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="14"/>
+      <c r="A100" s="16"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="14"/>
+      <c r="A101" s="16"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="14"/>
+      <c r="A102" s="16"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="14"/>
+      <c r="A103" s="16"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="14"/>
+      <c r="A104" s="16"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="14"/>
+      <c r="A105" s="16"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="14"/>
+      <c r="A106" s="16"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="14"/>
+      <c r="A107" s="16"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="14"/>
+      <c r="A108" s="16"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="14"/>
+      <c r="A109" s="16"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="14"/>
+      <c r="A110" s="16"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="14"/>
+      <c r="A111" s="16"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="14"/>
+      <c r="A112" s="16"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="14"/>
+      <c r="A113" s="16"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="14"/>
+      <c r="A114" s="16"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="14"/>
+      <c r="A115" s="16"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="14"/>
+      <c r="A116" s="16"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="14"/>
+      <c r="A117" s="16"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="14"/>
+      <c r="A118" s="16"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="14"/>
+      <c r="A119" s="16"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="14"/>
+      <c r="A120" s="16"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="14"/>
+      <c r="A121" s="16"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="14"/>
+      <c r="A122" s="16"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="14"/>
+      <c r="A123" s="16"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="14"/>
+      <c r="A124" s="16"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="14"/>
+      <c r="A125" s="16"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="14"/>
+      <c r="A126" s="16"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="14"/>
+      <c r="A127" s="16"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="14"/>
+      <c r="A128" s="16"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="14"/>
+      <c r="A129" s="16"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="14"/>
+      <c r="A130" s="16"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="14"/>
+      <c r="A131" s="16"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="14"/>
+      <c r="A132" s="16"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="14"/>
+      <c r="A133" s="16"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="14"/>
+      <c r="A134" s="16"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="14"/>
+      <c r="A135" s="16"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="14"/>
+      <c r="A136" s="16"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="14"/>
+      <c r="A137" s="16"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="14"/>
+      <c r="A138" s="16"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="14"/>
+      <c r="A139" s="16"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="14"/>
+      <c r="A140" s="16"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="14"/>
+      <c r="A141" s="16"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="14"/>
+      <c r="A142" s="16"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="14"/>
+      <c r="A143" s="16"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="14"/>
+      <c r="A144" s="16"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="14"/>
+      <c r="A145" s="16"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="14"/>
+      <c r="A146" s="16"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="14"/>
+      <c r="A147" s="16"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="14"/>
+      <c r="A148" s="16"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="14"/>
+      <c r="A149" s="16"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="14"/>
+      <c r="A150" s="16"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="14"/>
+      <c r="A151" s="16"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="14"/>
+      <c r="A152" s="16"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="14"/>
+      <c r="A153" s="16"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="14"/>
+      <c r="A154" s="16"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="14"/>
+      <c r="A155" s="16"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="14"/>
+      <c r="A156" s="16"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="14"/>
+      <c r="A157" s="16"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="14"/>
+      <c r="A158" s="16"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="14"/>
+      <c r="A159" s="16"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="14"/>
+      <c r="A160" s="16"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="14"/>
+      <c r="A161" s="16"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="14"/>
+      <c r="A162" s="16"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="14"/>
+      <c r="A163" s="16"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="14"/>
+      <c r="A164" s="16"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="14"/>
+      <c r="A165" s="16"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="14"/>
+      <c r="A166" s="16"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="14"/>
+      <c r="A167" s="16"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="14"/>
+      <c r="A168" s="16"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="14"/>
+      <c r="A169" s="16"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="14"/>
+      <c r="A170" s="16"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="14"/>
+      <c r="A171" s="16"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="14"/>
+      <c r="A172" s="16"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="14"/>
+      <c r="A173" s="16"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="14"/>
+      <c r="A174" s="16"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="14"/>
+      <c r="A175" s="16"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="14"/>
+      <c r="A176" s="16"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="14"/>
+      <c r="A177" s="16"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="14"/>
+      <c r="A178" s="16"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="14"/>
+      <c r="A179" s="16"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="14"/>
+      <c r="A180" s="16"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="14"/>
+      <c r="A181" s="16"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="14"/>
+      <c r="A182" s="16"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="14"/>
+      <c r="A183" s="16"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="14"/>
+      <c r="A184" s="16"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="14"/>
+      <c r="A185" s="16"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="14"/>
+      <c r="A186" s="16"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="14"/>
+      <c r="A187" s="16"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="14"/>
+      <c r="A188" s="16"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="14"/>
+      <c r="A189" s="16"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="14"/>
+      <c r="A190" s="16"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="14"/>
+      <c r="A191" s="16"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="14"/>
+      <c r="A192" s="16"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="14"/>
+      <c r="A193" s="16"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="14"/>
+      <c r="A194" s="16"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="14"/>
+      <c r="A195" s="16"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="14"/>
+      <c r="A196" s="16"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="14"/>
+      <c r="A197" s="16"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="14"/>
+      <c r="A198" s="16"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="14"/>
+      <c r="A199" s="16"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="14"/>
+      <c r="A200" s="16"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="14"/>
+      <c r="A201" s="16"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="14"/>
+      <c r="A202" s="16"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="14"/>
+      <c r="A203" s="16"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="14"/>
+      <c r="A204" s="16"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="14"/>
+      <c r="A205" s="16"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="14"/>
+      <c r="A206" s="16"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="14"/>
+      <c r="A207" s="16"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="14"/>
+      <c r="A208" s="16"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="14"/>
+      <c r="A209" s="16"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="14"/>
+      <c r="A210" s="16"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="14"/>
+      <c r="A211" s="16"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="14"/>
+      <c r="A212" s="16"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="14"/>
+      <c r="A213" s="16"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="14"/>
+      <c r="A214" s="16"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="14"/>
+      <c r="A215" s="16"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="14"/>
+      <c r="A216" s="16"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="14"/>
+      <c r="A217" s="16"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="14"/>
+      <c r="A218" s="16"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="14"/>
+      <c r="A219" s="16"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="14"/>
+      <c r="A220" s="16"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
